--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Euclides-Tec. Soldagem-3B, Mayra-T. NãoMetalicos-3B, Euclides-Tec. Soldagem-3B, Mayra-T. NãoMetalicos-3B]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Retífica-3B, Rogério-Retífica-3B, Rogério-Retífica-3B, Rogério-Retífica-3B]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor S.-Usin. CNC-3B, Victor S.-Usin. CNC-3B, Victor S.-Usin. CNC-3B, Victor S.-Usin. CNC-3B]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-Elem. Máquinas</t>
         </is>
       </c>
     </row>
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Euclides-Tec. Soldagem-3B, Gisele-Ens. Dest. Não Desti.-3B, Euclides-Tec. Soldagem-3B, Gisele-Ens. Dest. Não Desti.-3B]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição-3B, Leandro-Mec. Manut. Equip. Ind-3B, Leandro-Mec. Manut. Equip. Ind-3B, Joel L.-Tec. Fundição-3B]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem-3B, Aderci-Fresagem-3B, Aselmo-M. Motor Endot.-3B, Aselmo-M. Motor Endot.-3B]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-Elem. Máquinas</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Humberto-Coman. Pneumáticos-3B, Gisele-Ens. Dest. Não Desti.-3B, Humberto-Coman. Pneumáticos-3B, Gisele-Ens. Dest. Não Desti.-3B]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hugo Souza-Motores CA</t>
+          <t>[Leandro-M. S. R. AR Cond.-3B, Leandro-Mec. Manut. Equip. Ind-3B, Leandro-Mec. Manut. Equip. Ind-3B, Leandro-M. S. R. AR Cond.-3B]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem-3B, Aderci-Fresagem-3B, Valmir-Calderaria-3B, Valmir-Calderaria-3B]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Elcio D.-Cont. Lóg. Prog. CLP-3B, Elcio D.-Cont. Lóg. Prog. CLP-3B, Elcio D.-Cont. Lóg. Prog. CLP-3B, Elcio D.-Cont. Lóg. Prog. CLP-3B]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-M. Motor Endot.-3B, Ivan-Trat. Termicos-3B, Ivan-Trat. Termicos-3B, Aselmo-M. Motor Endot.-3B]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Coman. Hidraulicos-3B, Ludoff-Coman. Hidraulicos-3B, Ludoff-Coman. Hidraulicos-3B, Ludoff-Coman. Hidraulicos-3B]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hugo Souza-Motores CA</t>
+          <t>[Leandro-M. S. R. AR Cond.-3B, Paulo Rob.-M. A. Comp. CAD / CAM-3B, Paulo Rob.-M. A. Comp. CAD / CAM-3B, Leandro-M. S. R. AR Cond.-3B]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ismail-Metrologia 2-3B, Ismail-Metrologia 2-3B, Ismail-Metrologia 2-3B, Ismail-Metrologia 2-3B]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Coman. Pneumáticos-3B, Ludoff-Coman. Pneumáticos-3B, Ludoff-Coman. Pneumáticos-3B, Ludoff-Coman. Pneumáticos-3B]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Ivan-Trat. Termicos-3B, Ivan-Trat. Termicos-3B, -]</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Valmir-Calderaria-3B, Paulo Rob.-M. A. Comp. CAD / CAM-3B, Paulo Rob.-M. A. Comp. CAD / CAM-3B, Valmir-Calderaria-3B]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição-3B, Joel L.-Tec. Fundição-3B, Humberto-Coman. Pneumáticos-3B, Humberto-Coman. Pneumáticos-3B]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -478,12 +478,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-Elem. Máquinas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor-Usin. CNC-3B, Leandro-Mec. Manut.Equip. ind.-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-M.S.R. ar Cond.-3B]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Coman. Hidraulicos-3B, -, Elcio Dec.-Cont.Lóg.Prog CLP-3B, Joel L.-Tec. Fundição-3B]</t>
         </is>
       </c>
     </row>
@@ -505,17 +505,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Euclides-Tec. Soldagem-3B, Mayra-T. NãoMetalicos-3B, Euclides-Tec. Soldagem-3B, Mayra-T. NãoMetalicos-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica-3B, Rogério-Retífica-3B, Rogério-Retífica-3B, Rogério-Retífica-3B]</t>
+          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Euclides-Tec. Soldagem-3B, Valmir-Calderaria-3B]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Victor S.-Usin. CNC-3B, Victor S.-Usin. CNC-3B, Victor S.-Usin. CNC-3B, Victor S.-Usin. CNC-3B]</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3B, Aselmo-M. Motor Endot.-3B, Ismail-Metrologia 2-3B, Ivan-Trat. Termicos-3B]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nilton-Elem. Máquinas</t>
+          <t>[Leandro-M.S.R. ar Cond.-3B, Victor-Usin. CNC-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-Mec. Manut.Equip. ind.-3B]</t>
         </is>
       </c>
     </row>
@@ -537,17 +537,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Euclides-Tec. Soldagem-3B, Gisele-Ens. Dest. Não Desti.-3B, Euclides-Tec. Soldagem-3B, Gisele-Ens. Dest. Não Desti.-3B]</t>
+          <t>[Elcio Dec.-Cont.Lóg.Prog CLP-3B, -, Joel L.-Tec. Fundição-3B, Ludoff-Coman. Hidraulicos-3B]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição-3B, Leandro-Mec. Manut. Equip. Ind-3B, Leandro-Mec. Manut. Equip. Ind-3B, Joel L.-Tec. Fundição-3B]</t>
+          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Euclides-Tec. Soldagem-3B, Valmir-Calderaria-3B]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-3B, Aderci-Fresagem-3B, Aselmo-M. Motor Endot.-3B, Aselmo-M. Motor Endot.-3B]</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3B, Aselmo-M. Motor Endot.-3B, Ismail-Metrologia 2-3B, Ivan-Trat. Termicos-3B]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nilton-Elem. Máquinas</t>
+          <t>[Leandro-M.S.R. ar Cond.-3B, Victor-Usin. CNC-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-Mec. Manut.Equip. ind.-3B]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Humberto-Coman. Pneumáticos-3B, Gisele-Ens. Dest. Não Desti.-3B, Humberto-Coman. Pneumáticos-3B, Gisele-Ens. Dest. Não Desti.-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Leandro-M. S. R. AR Cond.-3B, Leandro-Mec. Manut. Equip. Ind-3B, Leandro-Mec. Manut. Equip. Ind-3B, Leandro-M. S. R. AR Cond.-3B]</t>
+          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Euclides-Tec. Soldagem-3B, Valmir-Calderaria-3B]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-3B, Aderci-Fresagem-3B, Valmir-Calderaria-3B, Valmir-Calderaria-3B]</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3B, Aselmo-M. Motor Endot.-3B, Ismail-Metrologia 2-3B, Ivan-Trat. Termicos-3B]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Elcio D.-Cont. Lóg. Prog. CLP-3B, Elcio D.-Cont. Lóg. Prog. CLP-3B, Elcio D.-Cont. Lóg. Prog. CLP-3B, Elcio D.-Cont. Lóg. Prog. CLP-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot.-3B, Ivan-Trat. Termicos-3B, Ivan-Trat. Termicos-3B, Aselmo-M. Motor Endot.-3B]</t>
+          <t>[Leandro-M.S.R. ar Cond.-3B, Victor-Usin. CNC-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-Mec. Manut.Equip. ind.-3B]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Ludoff-Coman. Hidraulicos-3B, Ludoff-Coman. Hidraulicos-3B, Ludoff-Coman. Hidraulicos-3B, Ludoff-Coman. Hidraulicos-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Leandro-M. S. R. AR Cond.-3B, Paulo Rob.-M. A. Comp. CAD / CAM-3B, Paulo Rob.-M. A. Comp. CAD / CAM-3B, Leandro-M. S. R. AR Cond.-3B]</t>
+          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Euclides-Tec. Soldagem-3B, Valmir-Calderaria-3B]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2-3B, Ismail-Metrologia 2-3B, Ismail-Metrologia 2-3B, Ismail-Metrologia 2-3B]</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3B, Aselmo-M. Motor Endot.-3B, Ismail-Metrologia 2-3B, Ivan-Trat. Termicos-3B]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Ludoff-Coman. Pneumáticos-3B, Ludoff-Coman. Pneumáticos-3B, Ludoff-Coman. Pneumáticos-3B, Ludoff-Coman. Pneumáticos-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[-, Ivan-Trat. Termicos-3B, Ivan-Trat. Termicos-3B, -]</t>
+          <t>[Joel L.-Tec. Fundição-3B, Ludoff-Coman. Hidraulicos-3B, -, Elcio Dec.-Cont.Lóg.Prog CLP-3B]</t>
         </is>
       </c>
     </row>
@@ -670,22 +670,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria-3B, Paulo Rob.-M. A. Comp. CAD / CAM-3B, Paulo Rob.-M. A. Comp. CAD / CAM-3B, Valmir-Calderaria-3B]</t>
+          <t>Nilton-Elem. Máquinas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Mayra-Tec. Mat. Não Metal.-3B, Mayra-Tec. Mat. Não Metal.-3B]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição-3B, Joel L.-Tec. Fundição-3B, Humberto-Coman. Pneumáticos-3B, Humberto-Coman. Pneumáticos-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição-3B, Ludoff-Coman. Hidraulicos-3B, -, Elcio Dec.-Cont.Lóg.Prog CLP-3B]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -478,22 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>[Gisele-Ens. Dest. Não Desti.-3B, Joel L.-Tec. Fundição-3B, Leandro-Mec. Manut.Equip. ind.-3B, Euclides-Tec. Soldagem-3B]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[Valmir-Calderaria-3B, -, Leandro-M.S.R. ar Cond.-3B, Paulo Rob.-M.A.Comp.CAD / CAM-3B]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Nilton-Elem. Máquinas</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[Victor-Usin. CNC-3B, Leandro-Mec. Manut.Equip. ind.-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-M.S.R. ar Cond.-3B]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[Ludoff-Coman. Hidraulicos-3B, -, Elcio Dec.-Cont.Lóg.Prog CLP-3B, Joel L.-Tec. Fundição-3B]</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Euclides-Tec. Soldagem-3B, Valmir-Calderaria-3B]</t>
+          <t>[Ivan-Trat. Termicos-3B, Ismail-Metrologia 2-3B, Elcio Dec.-Cont.Lóg.Prog CLP-3B, Aselmo-M. Motor Endot.-3B]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3B, Aselmo-M. Motor Endot.-3B, Ismail-Metrologia 2-3B, Ivan-Trat. Termicos-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor-Usin. CNC-3B, -, Leandro-M.S.R. ar Cond.-3B, Paulo Rob.-M.A.Comp.CAD / CAM-3B]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R. ar Cond.-3B, Victor-Usin. CNC-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-Mec. Manut.Equip. ind.-3B]</t>
+          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Ludoff-Coman. Hidraulicos-3B, Valmir-Calderaria-3B]</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Cont.Lóg.Prog CLP-3B, -, Joel L.-Tec. Fundição-3B, Ludoff-Coman. Hidraulicos-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Euclides-Tec. Soldagem-3B, Valmir-Calderaria-3B]</t>
+          <t>[Ivan-Trat. Termicos-3B, Ismail-Metrologia 2-3B, Elcio Dec.-Cont.Lóg.Prog CLP-3B, Aselmo-M. Motor Endot.-3B]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3B, Aselmo-M. Motor Endot.-3B, Ismail-Metrologia 2-3B, Ivan-Trat. Termicos-3B]</t>
+          <t>[Mayra-Tec. Mat. Não Metal.-3B, Mayra-Tec. Mat. Não Metal.-3B]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor-Usin. CNC-3B, -, Leandro-M.S.R. ar Cond.-3B, Paulo Rob.-M.A.Comp.CAD / CAM-3B]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R. ar Cond.-3B, Victor-Usin. CNC-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-Mec. Manut.Equip. ind.-3B]</t>
+          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Ludoff-Coman. Hidraulicos-3B, Victor-Usin. CNC-3B]</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Euclides-Tec. Soldagem-3B, Valmir-Calderaria-3B]</t>
+          <t>[Ivan-Trat. Termicos-3B, Ismail-Metrologia 2-3B, Elcio Dec.-Cont.Lóg.Prog CLP-3B, Aselmo-M. Motor Endot.-3B]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3B, Aselmo-M. Motor Endot.-3B, Ismail-Metrologia 2-3B, Ivan-Trat. Termicos-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição-3B, Euclides-Tec. Soldagem-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-Mec. Manut.Equip. ind.-3B]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R. ar Cond.-3B, Victor-Usin. CNC-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-Mec. Manut.Equip. ind.-3B]</t>
+          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Ludoff-Coman. Hidraulicos-3B, Valmir-Calderaria-3B]</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Euclides-Tec. Soldagem-3B, Valmir-Calderaria-3B]</t>
+          <t>[Ivan-Trat. Termicos-3B, Ismail-Metrologia 2-3B, Elcio Dec.-Cont.Lóg.Prog CLP-3B, Aselmo-M. Motor Endot.-3B]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3B, Aselmo-M. Motor Endot.-3B, Ismail-Metrologia 2-3B, Ivan-Trat. Termicos-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição-3B, Euclides-Tec. Soldagem-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-Mec. Manut.Equip. ind.-3B]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição-3B, Ludoff-Coman. Hidraulicos-3B, -, Elcio Dec.-Cont.Lóg.Prog CLP-3B]</t>
+          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Ludoff-Coman. Hidraulicos-3B, Valmir-Calderaria-3B]</t>
         </is>
       </c>
     </row>
@@ -670,22 +670,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>[Leandro-Mec. Manut.Equip. ind.-3B, Euclides-Tec. Soldagem-3B, Gisele-Ens. Dest. Não Desti.-3B, Joel L.-Tec. Fundição-3B]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3B, Leandro-M.S.R. ar Cond.-3B, -, Victor-Usin. CNC-3B]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Nilton-Elem. Máquinas</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[Mayra-Tec. Mat. Não Metal.-3B, Mayra-Tec. Mat. Não Metal.-3B]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[Joel L.-Tec. Fundição-3B, Ludoff-Coman. Hidraulicos-3B, -, Elcio Dec.-Cont.Lóg.Prog CLP-3B]</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Valmir-Calderaria-3B, -, -, -]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Valmir-Calderaria-3B, -, -, -]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">

--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -473,27 +473,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leandro-M.S.R. ar Cond., Gisele-Ens. Dest. Não Desti., Ivan-Trat. Termicos, Leandro-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti.-3B, Joel L.-Tec. Fundição-3B, Leandro-Mec. Manut.Equip. ind.-3B, Euclides-Tec. Soldagem-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Valmir-Calderaria, Victor-Usin. CNC, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria-3B, -, Leandro-M.S.R. ar Cond.-3B, Paulo Rob.-M.A.Comp.CAD / CAM-3B]</t>
+          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Rogério-Retífica, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nilton-Elem. Máquinas</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Euclides-Tec. Soldagem, Ludoff-Coman. Hidraulicos, Joel L.-Tec. Fundição]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos-3B, Ismail-Metrologia 2-3B, Elcio Dec.-Cont.Lóg.Prog CLP-3B, Aselmo-M. Motor Endot.-3B]</t>
+          <t>Nilton-Elem. Máqui</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Valmir-Calderaria, Victor-Usin. CNC, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC-3B, -, Leandro-M.S.R. ar Cond.-3B, Paulo Rob.-M.A.Comp.CAD / CAM-3B]</t>
+          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Rogério-Retífica, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Ludoff-Coman. Hidraulicos-3B, Valmir-Calderaria-3B]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Euclides-Tec. Soldagem, Ludoff-Coman. Hidraulicos, Joel L.-Tec. Fundição]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos-3B, Ismail-Metrologia 2-3B, Elcio Dec.-Cont.Lóg.Prog CLP-3B, Aselmo-M. Motor Endot.-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal.-3B, Mayra-Tec. Mat. Não Metal.-3B]</t>
+          <t>[-, Valmir-Calderaria, Victor-Usin. CNC, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC-3B, -, Leandro-M.S.R. ar Cond.-3B, Paulo Rob.-M.A.Comp.CAD / CAM-3B]</t>
+          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Rogério-Retífica, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Ludoff-Coman. Hidraulicos-3B, Victor-Usin. CNC-3B]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Euclides-Tec. Soldagem, Ludoff-Coman. Hidraulicos, Joel L.-Tec. Fundição]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos-3B, Ismail-Metrologia 2-3B, Elcio Dec.-Cont.Lóg.Prog CLP-3B, Aselmo-M. Motor Endot.-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Valmir-Calderaria, Victor-Usin. CNC, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição-3B, Euclides-Tec. Soldagem-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-Mec. Manut.Equip. ind.-3B]</t>
+          <t>[Leandro-M.S.R. ar Cond., Ivan-Trat. Termicos, Gisele-Ens. Dest. Não Desti., Leandro-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Ludoff-Coman. Hidraulicos-3B, Valmir-Calderaria-3B]</t>
+          <t>Nilton-Elem. Máqui</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Euclides-Tec. Soldagem, Ludoff-Coman. Hidraulicos, Joel L.-Tec. Fundição]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos-3B, Ismail-Metrologia 2-3B, Elcio Dec.-Cont.Lóg.Prog CLP-3B, Aselmo-M. Motor Endot.-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Mayra-Tec. Mat. Não Metal., Mayra-Tec. Mat. Não Metal.]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição-3B, Euclides-Tec. Soldagem-3B, Gisele-Ens. Dest. Não Desti.-3B, Leandro-Mec. Manut.Equip. ind.-3B]</t>
+          <t>[Leandro-M.S.R. ar Cond., Ivan-Trat. Termicos, Gisele-Ens. Dest. Não Desti., Leandro-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem-3B, Rogério-Retífica-3B, Ludoff-Coman. Hidraulicos-3B, Valmir-Calderaria-3B]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,12 +665,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Leandro-M.S.R. ar Cond., Leandro-Mec. Manut.Equip. ind., Ivan-Trat. Termicos]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Leandro-Mec. Manut.Equip. ind.-3B, Euclides-Tec. Soldagem-3B, Gisele-Ens. Dest. Não Desti.-3B, Joel L.-Tec. Fundição-3B]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM-3B, Leandro-M.S.R. ar Cond.-3B, -, Victor-Usin. CNC-3B]</t>
+          <t>[Aselmo-M. Motor Endot., Aderci-Fresagem, Elcio Dec.-Cont.Lóg.Prog CLP, Rogério-Retífica]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nilton-Elem. Máquinas</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria-3B, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria-3B, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1106,6 +1106,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -473,22 +473,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R. ar Cond., Gisele-Ens. Dest. Não Desti., Ivan-Trat. Termicos, Leandro-Mec. Manut.Equip. ind.]</t>
+          <t>[Victor-Usin. CNC, Leandro-M.S.R. ar Cond., Leandro-Mec. Manut.Equip. ind., Ludoff-Coman. Hidraulicos]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Joel L.-Tec. Fundição, Rogério-Retífica, -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[-, Valmir-Calderaria, Victor-Usin. CNC, Ismail-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Rogério-Retífica, Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Euclides-Tec. Soldagem, Ludoff-Coman. Hidraulicos, Joel L.-Tec. Fundição]</t>
+          <t>[Ivan-Trat. Termicos, Valmir-Calderaria, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nilton-Elem. Máqui</t>
+          <t>[Aselmo-M. Motor Endot., Gisele-Ens. Dest. Não Desti., Ismail-Metrologia 2, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[-, Valmir-Calderaria, Victor-Usin. CNC, Ismail-Metrologia 2]</t>
+          <t>[Ludoff-Coman. Hidraulicos, Victor-Usin. CNC, Joel L.-Tec. Fundição, Rogério-Retífica]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Rogério-Retífica, Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Euclides-Tec. Soldagem, Ludoff-Coman. Hidraulicos, Joel L.-Tec. Fundição]</t>
+          <t>[Ivan-Trat. Termicos, Valmir-Calderaria, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-M. Motor Endot., Gisele-Ens. Dest. Não Desti., Ismail-Metrologia 2, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[-, Valmir-Calderaria, Victor-Usin. CNC, Ismail-Metrologia 2]</t>
+          <t>[Ludoff-Coman. Hidraulicos, Victor-Usin. CNC, Joel L.-Tec. Fundição, Rogério-Retífica]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Rogério-Retífica, Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-Elem. Máqui</t>
         </is>
       </c>
     </row>
@@ -601,22 +601,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Euclides-Tec. Soldagem, Ludoff-Coman. Hidraulicos, Joel L.-Tec. Fundição]</t>
+          <t>[Ivan-Trat. Termicos, Valmir-Calderaria, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-M. Motor Endot., Gisele-Ens. Dest. Não Desti., Ismail-Metrologia 2, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[-, Valmir-Calderaria, Victor-Usin. CNC, Ismail-Metrologia 2]</t>
+          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, -, Joel L.-Tec. Fundição, Rogério-Retífica]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R. ar Cond., Ivan-Trat. Termicos, Gisele-Ens. Dest. Não Desti., Leandro-Mec. Manut.Equip. ind.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,22 +633,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Euclides-Tec. Soldagem, Ludoff-Coman. Hidraulicos, Joel L.-Tec. Fundição]</t>
+          <t>[Ivan-Trat. Termicos, Valmir-Calderaria, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Ismail-Metrologia 2, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, -, -, -]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>[Mayra-Tec. Mat. Não Metal., Mayra-Tec. Mat. Não Metal.]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[Leandro-M.S.R. ar Cond., Ivan-Trat. Termicos, Gisele-Ens. Dest. Não Desti., Leandro-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -665,22 +665,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Leandro-M.S.R. ar Cond., Leandro-Mec. Manut.Equip. ind., Ivan-Trat. Termicos]</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Aselmo-M. Motor Endot., Leandro-M.S.R. ar Cond., Leandro-Mec. Manut.Equip. ind.]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Ludoff-Coman. Hidraulicos, Victor-Usin. CNC]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, -, -, -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Aderci-Fresagem, Elcio Dec.-Cont.Lóg.Prog CLP, Rogério-Retífica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC, Leandro-M.S.R. ar Cond., Leandro-Mec. Manut.Equip. ind., Ludoff-Coman. Hidraulicos]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Joel L.-Tec. Fundição, Rogério-Retífica, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,12 +488,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Trat. Termicos, Victor-Usin. CNC, Elcio Dec.-Cont.Lóg.Prog CLP, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Trat. Termicos, Elcio Dec.-Cont.Lóg.Prog CLP, Victor-Usin. CNC, Rogério-Retífica]</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos, Valmir-Calderaria, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
+          <t>Nilton-Elem. Máqui</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Gisele-Ens. Dest. Não Desti., Ismail-Metrologia 2, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Ludoff-Coman. Hidraulicos, Victor-Usin. CNC, Joel L.-Tec. Fundição, Rogério-Retífica]</t>
+          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Joel L.-Tec. Fundição, -]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-M. Motor Endot., Euclides-Tec. Soldagem, Valmir-Calderaria, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Ludoff-Coman. Hidraulicos, Paulo Rob.-M.A.Comp.CAD / CAM, Aderci-Fresagem]</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos, Valmir-Calderaria, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
+          <t>Nilton-Elem. Máqui</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Gisele-Ens. Dest. Não Desti., Ismail-Metrologia 2, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Ludoff-Coman. Hidraulicos, Victor-Usin. CNC, Joel L.-Tec. Fundição, Rogério-Retífica]</t>
+          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Joel L.-Tec. Fundição, -]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-M. Motor Endot., Euclides-Tec. Soldagem, Valmir-Calderaria, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nilton-Elem. Máqui</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Ludoff-Coman. Hidraulicos, Paulo Rob.-M.A.Comp.CAD / CAM, Aderci-Fresagem]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos, Valmir-Calderaria, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Gisele-Ens. Dest. Não Desti., Ismail-Metrologia 2, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, -, Joel L.-Tec. Fundição, Rogério-Retífica]</t>
+          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Joel L.-Tec. Fundição, -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-M. Motor Endot., Euclides-Tec. Soldagem, Valmir-Calderaria, Rogério-Retífica]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nilton-Elem. Máqui</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Ludoff-Coman. Hidraulicos, Paulo Rob.-M.A.Comp.CAD / CAM, Aderci-Fresagem]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos, Valmir-Calderaria, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
+          <t>[Mayra-Tec. Mat. Não Metal., Mayra-Tec. Mat. Não Metal.]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Ismail-Metrologia 2, Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, -, -, -]</t>
+          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Joel L.-Tec. Fundição, -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., Mayra-Tec. Mat. Não Metal.]</t>
+          <t>[Aselmo-M. Motor Endot., Euclides-Tec. Soldagem, Valmir-Calderaria, Rogério-Retífica]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Gisele-Ens. Dest. Não Desti., Ludoff-Coman. Hidraulicos, Paulo Rob.-M.A.Comp.CAD / CAM, Aderci-Fresagem]</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Aselmo-M. Motor Endot., Leandro-M.S.R. ar Cond., Leandro-Mec. Manut.Equip. ind.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Ludoff-Coman. Hidraulicos, Victor-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ismail-Metrologia 2, Elcio Dec.-Cont.Lóg.Prog CLP, Ivan-Trat. Termicos, Victor-Usin. CNC]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Ivan-Trat. Termicos, Rogério-Retífica, Victor-Usin. CNC]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ismail-Metrologia 2, Elcio Dec.-Cont.Lóg.Prog CLP, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,17 +483,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Euclides-Tec. Soldagem, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos, Victor-Usin. CNC, Elcio Dec.-Cont.Lóg.Prog CLP, Ismail-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos, Elcio Dec.-Cont.Lóg.Prog CLP, Victor-Usin. CNC, Rogério-Retífica]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>[Ismail-Metrologia 2, Elcio Dec.-Cont.Lóg.Prog CLP, Gisele-Ens. Dest. Não Desti., Aderci-Fresagem]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[Joel L.-Tec. Fundição, Valmir-Calderaria, Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond.]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Nilton-Elem. Máqui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Joel L.-Tec. Fundição, -]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[Aselmo-M. Motor Endot., Euclides-Tec. Soldagem, Valmir-Calderaria, Ismail-Metrologia 2]</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Ludoff-Coman. Hidraulicos, Paulo Rob.-M.A.Comp.CAD / CAM, Aderci-Fresagem]</t>
+          <t>[Ivan-Trat. Termicos, -, -, Victor-Usin. CNC]</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>[Aselmo-M. Motor Endot., Rogério-Retífica, Ismail-Metrologia 2, Aderci-Fresagem]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[Joel L.-Tec. Fundição, Valmir-Calderaria, Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond.]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Nilton-Elem. Máqui</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Joel L.-Tec. Fundição, -]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[Aselmo-M. Motor Endot., Euclides-Tec. Soldagem, Valmir-Calderaria, Ismail-Metrologia 2]</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Ludoff-Coman. Hidraulicos, Paulo Rob.-M.A.Comp.CAD / CAM, Aderci-Fresagem]</t>
+          <t>[Ivan-Trat. Termicos, -, Ludoff-Coman. Hidraulicos, Victor-Usin. CNC]</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-M. Motor Endot., Rogério-Retífica, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,17 +611,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Joel L.-Tec. Fundição, -]</t>
+          <t>[Joel L.-Tec. Fundição, Valmir-Calderaria, Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond.]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Euclides-Tec. Soldagem, Valmir-Calderaria, Rogério-Retífica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Ludoff-Coman. Hidraulicos, Paulo Rob.-M.A.Comp.CAD / CAM, Aderci-Fresagem]</t>
+          <t>[Ivan-Trat. Termicos, -, Ludoff-Coman. Hidraulicos, Victor-Usin. CNC]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>[Aselmo-M. Motor Endot., Rogério-Retífica, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>[Mayra-Tec. Mat. Não Metal., Mayra-Tec. Mat. Não Metal.]</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond., Joel L.-Tec. Fundição, -]</t>
+          <t>[Joel L.-Tec. Fundição, Valmir-Calderaria, Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond.]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Euclides-Tec. Soldagem, Valmir-Calderaria, Rogério-Retífica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. Não Desti., Ludoff-Coman. Hidraulicos, Paulo Rob.-M.A.Comp.CAD / CAM, Aderci-Fresagem]</t>
+          <t>[Ivan-Trat. Termicos, Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Coman. Hidraulicos, Victor-Usin. CNC]</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Ismail-Metrologia 2, Ludoff-Coman. Hidraulicos, Elcio Dec.-Cont.Lóg.Prog CLP]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aselmo-M. Motor Endot., Rogério-Retífica, Euclides-Tec. Soldagem, Gisele-Ens. Dest. Não Desti.]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, Elcio Dec.-Cont.Lóg.Prog CLP, Ivan-Trat. Termicos, Victor-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Ivan-Trat. Termicos, Rogério-Retífica, Victor-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, Elcio Dec.-Cont.Lóg.Prog CLP, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Elcio Dec.-Cont.Lóg.Prog CLP, Euclides-Tec. Soldagem, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Ismail-Metrologia 2, Elcio Dec.-Cont.Lóg.Prog CLP, Gisele-Ens. Dest. Não Desti., Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Valmir-Calderaria, Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nilton-Elem. Máqui</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos, -, -, Victor-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Rogério-Retífica, Ismail-Metrologia 2, Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,17 +547,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Valmir-Calderaria, Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nilton-Elem. Máqui</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos, -, Ludoff-Coman. Hidraulicos, Victor-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Rogério-Retífica, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Valmir-Calderaria, Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos, -, Ludoff-Coman. Hidraulicos, Victor-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,17 +633,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Rogério-Retífica, Euclides-Tec. Soldagem, Aderci-Fresagem]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., Mayra-Tec. Mat. Não Metal.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Valmir-Calderaria, Leandro-Mec. Manut.Equip. ind., Leandro-M.S.R. ar Cond.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Termicos, Paulo Rob.-M.A.Comp.CAD / CAM, Ludoff-Coman. Hidraulicos, Victor-Usin. CNC]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Paulo Rob.-M.A.Comp.CAD / CAM, Ismail-Metrologia 2, Ludoff-Coman. Hidraulicos, Elcio Dec.-Cont.Lóg.Prog CLP]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Aselmo-M. Motor Endot., Rogério-Retífica, Euclides-Tec. Soldagem, Gisele-Ens. Dest. Não Desti.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Leandro-Mec. Manut.Equip. ind., -]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leandro-M.S.R. ar Cond., -, -, -]</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Retífica, Ludoff-Coman. Hidraulicos, Ivan-Trat. Termicos, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Leandro-Mec. Manut.Equip. ind., -]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, Elcio Dec.-Cont.Lóg.Prog CLP, Victor-Usin. CNC, Euclides-Tec. Soldagem]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, Leandro-M.S.R. ar Cond.]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Leandro-M.S.R. ar Cond., -, Valmir-Calderaria, -]</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Retífica, Ludoff-Coman. Hidraulicos, Ivan-Trat. Termicos, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Mayra-Tec. Mat. Não Metal., -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, Elcio Dec.-Cont.Lóg.Prog CLP, Victor-Usin. CNC, Euclides-Tec. Soldagem]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, Leandro-M.S.R. ar Cond.]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM, Aselmo-M. Motor Endot.]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Retífica, Ludoff-Coman. Hidraulicos, Ivan-Trat. Termicos, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Mayra-Tec. Mat. Não Metal., -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, Elcio Dec.-Cont.Lóg.Prog CLP, Victor-Usin. CNC, Euclides-Tec. Soldagem]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-Elem. Máqui</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM, Valmir-Calderaria]</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Retífica, Ludoff-Coman. Hidraulicos, Ivan-Trat. Termicos, Ismail-Metrologia 2]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, Elcio Dec.-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Euclides-Tec. Soldagem]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nilton-Elem. Máqui</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM, Valmir-Calderaria]</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor-Usin. CNC, Leandro-Mec. Manut.Equip. ind., Aselmo-M. Motor Endot., -]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Leandro-Mec. Manut.Equip. ind., Aselmo-M. Motor Endot., -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM, Valmir-Calderaria]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -478,22 +478,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-, -, Leandro-Mec. Manut.Equip. ind., -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Rogério-Retificação, Anselmo-M. Motor Endot., Victor-Usin. CNC, Anderson J.-M. A. Comp; Cad / CAM]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Trat. Térmicos, Leandro-Mec. Manut. Equip. Ind., Aderci-Fresagem, Ludoff-Comam. Pneumáticos]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R. ar Cond., -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica, Ludoff-Coman. Hidraulicos, Ivan-Trat. Termicos, Ismail-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-, -, Leandro-Mec. Manut.Equip. ind., -]</t>
+          <t>Cleison-Elem</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Elcio Dec.-Cont.Lóg.Prog CLP, Victor-Usin. CNC, Euclides-Tec. Soldagem]</t>
+          <t>[Valmir-Calderaria, Anselmo-M. Motor Endot., Victor-Usin. CNC, Anderson J.-M. A. Comp; Cad / CAM]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, -, -, Leandro-M.S.R. ar Cond.]</t>
+          <t>[Gisele-Ens. Dest. não Dest., Humberto-Cont. Lóg. Prog. CLP, Joel Lima-Tec. Fundição, Leandro-M. S. Ar Cond.]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[Leandro-M.S.R. ar Cond., -, Valmir-Calderaria, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica, Ludoff-Coman. Hidraulicos, Ivan-Trat. Termicos, Ismail-Metrologia 2]</t>
+          <t>[-, -, Vinicius-Metrologia 2, Rogério-Retificação]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., -]</t>
+          <t>Cleison-Elem</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Elcio Dec.-Cont.Lóg.Prog CLP, Victor-Usin. CNC, Euclides-Tec. Soldagem]</t>
+          <t>[Anderson J.-M. A. Comp; Cad / CAM, Anselmo-M. Motor Endot., Victor-Usin. CNC, Vinicius-Metrologia 2]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, -, -, Leandro-M.S.R. ar Cond.]</t>
+          <t>[Gisele-Ens. Dest. não Dest., Humberto-Cont. Lóg. Prog. CLP, Joel Lima-Tec. Fundição, Leandro-M. S. Ar Cond.]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM, Aselmo-M. Motor Endot.]</t>
+          <t>[-, Rogério-Retificação, -, -]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica, Ludoff-Coman. Hidraulicos, Ivan-Trat. Termicos, Ismail-Metrologia 2]</t>
+          <t>[-, -, -, Rogério-Retificação]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Mayra-Tec. Mat. Não Metal., -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Elcio Dec.-Cont.Lóg.Prog CLP, Victor-Usin. CNC, Euclides-Tec. Soldagem]</t>
+          <t>[Ludoff-Coman. Hidráulicos, Anselmo-M. Motor Endot., Ivan-Tec. Soldagem, Vinicius-Metrologia 2]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nilton-Elem. Máqui</t>
+          <t>[Gisele-Ens. Dest. não Dest., Leandro-Mec. Manut. Equip. Ind., Joel Lima-Tec. Fundição, Humberto-Cont. Lóg. Prog. CLP]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM, Valmir-Calderaria]</t>
+          <t>[Ivan-Trat. Térmicos, Leandro-M. S. Ar Cond., Ludoff-Coman. Hidráulicos, Valmir-Calderaria]</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Rogério-Retífica, Ludoff-Coman. Hidraulicos, Ivan-Trat. Termicos, Ismail-Metrologia 2]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Elcio Dec.-Cont.Lóg.Prog CLP, Aselmo-M. Motor Endot., Euclides-Tec. Soldagem]</t>
+          <t>[Aderci-Fresagem, Ludoff-Comam. Pneumáticos, Ivan-Tec. Soldagem, Vinicius-Metrologia 2]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Nilton-Elem. Máqui</t>
+          <t>[Gisele-Ens. Dest. não Dest., Leandro-Mec. Manut. Equip. Ind., Joel Lima-Tec. Fundição, Humberto-Cont. Lóg. Prog. CLP]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM, Valmir-Calderaria]</t>
+          <t>[Ivan-Trat. Térmicos, Victor-Usin. CNC, Ludoff-Coman. Hidráulicos, Leandro-Mec. Manut. Equip. Ind.]</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC, Leandro-Mec. Manut.Equip. ind., Aselmo-M. Motor Endot., -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[-, Leandro-Mec. Manut.Equip. ind., Aselmo-M. Motor Endot., -]</t>
+          <t>[Aderci-Fresagem, Ludoff-Comam. Pneumáticos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Aderci-Fresagem, Ludoff-Comam. Pneumáticos, Ivan-Trat. Térmicos, Leandro-M. S. Ar Cond.]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[Joel L.-Tec. Fundição, Gisele-Ens. Dest. Não Desti., Paulo Rob.-M.A.Comp.CAD / CAM, Valmir-Calderaria]</t>
+          <t>[Anderson J.-M. A. Comp; Cad / CAM, Ludoff-Coman. Hidráulicos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Rogério-Retificação, Anselmo-M. Motor Endot., Victor-Usin. CNC, Anderson J.-M. A. Comp; Cad / CAM]</t>
+          <t>[Ludoff-Comam. Pneumáticos, Humberto-Cont. Lóg. Prog. CLP, Leandro-Mec. Manut. Equip. Ind., Joel Lima-Tec. Fundição]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Térmicos, Leandro-Mec. Manut. Equip. Ind., Aderci-Fresagem, Ludoff-Comam. Pneumáticos]</t>
+          <t>[Victor-Usin. CNC, Gisele-Ens. Dest. não Dest., Rogério-Retificação, Ivan-Trat. Térmicos]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,22 +505,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, Victor-Usin. CNC, Ivan-Trat. Térmicos, Gisele-Ens. Dest. não Dest.]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cleison-Elem</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Anselmo-M. Motor Endot., Victor-Usin. CNC, Anderson J.-M. A. Comp; Cad / CAM]</t>
+          <t>[Ludoff-Comam. Pneumáticos, Humberto-Cont. Lóg. Prog. CLP, Leandro-Mec. Manut. Equip. Ind., Joel Lima-Tec. Fundição]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. não Dest., Humberto-Cont. Lóg. Prog. CLP, Joel Lima-Tec. Fundição, Leandro-M. S. Ar Cond.]</t>
+          <t>[Victor-Usin. CNC, Gisele-Ens. Dest. não Dest., Valmir-Calderaria, Ivan-Trat. Térmicos]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, -, Vinicius-Metrologia 2, Rogério-Retificação]</t>
+          <t>[-, Victor-Usin. CNC, Ivan-Trat. Térmicos, -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cleison-Elem</t>
+          <t>[-, -, -, Anselmo-M. Motor Endot.]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Anderson J.-M. A. Comp; Cad / CAM, Anselmo-M. Motor Endot., Victor-Usin. CNC, Vinicius-Metrologia 2]</t>
+          <t>[Ludoff-Comam. Pneumáticos, Leandro-M. S. Ar Cond., Vinicius-Metrologia 2, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. não Dest., Humberto-Cont. Lóg. Prog. CLP, Joel Lima-Tec. Fundição, Leandro-M. S. Ar Cond.]</t>
+          <t>[Ludoff-Comam. Pneumáticos, Gisele-Ens. Dest. não Dest., Valmir-Calderaria, Anderson J.-M. A. Comp; Cad / CAM]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-, Rogério-Retificação, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, -, -, Rogério-Retificação]</t>
+          <t>[Ivan-Tec. Soldagem, -, -, -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem, -, Rogério-Retificação, Anselmo-M. Motor Endot.]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Ludoff-Coman. Hidráulicos, Anselmo-M. Motor Endot., Ivan-Tec. Soldagem, Vinicius-Metrologia 2]</t>
+          <t>[Joel Lima-Tec. Fundição, Leandro-M. S. Ar Cond., Vinicius-Metrologia 2, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. não Dest., Leandro-Mec. Manut. Equip. Ind., Joel Lima-Tec. Fundição, Humberto-Cont. Lóg. Prog. CLP]</t>
+          <t>[Valmir-Calderaria, Leandro-M. S. Ar Cond., Ludoff-Coman. Hidráulicos, Anderson J.-M. A. Comp; Cad / CAM]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Térmicos, Leandro-M. S. Ar Cond., Ludoff-Coman. Hidráulicos, Valmir-Calderaria]</t>
+          <t>Cleison-Elem</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem, -, -, -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Rogério-Retificação, Anselmo-M. Motor Endot.]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Ludoff-Comam. Pneumáticos, Ivan-Tec. Soldagem, Vinicius-Metrologia 2]</t>
+          <t>[Humberto-Cont. Lóg. Prog. CLP, Leandro-M. S. Ar Cond., Vinicius-Metrologia 2, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Gisele-Ens. Dest. não Dest., Leandro-Mec. Manut. Equip. Ind., Joel Lima-Tec. Fundição, Humberto-Cont. Lóg. Prog. CLP]</t>
+          <t>[Valmir-Calderaria, Anderson J.-M. A. Comp; Cad / CAM, Ludoff-Coman. Hidráulicos, Leandro-Mec. Manut. Equip. Ind.]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[Ivan-Trat. Térmicos, Victor-Usin. CNC, Ludoff-Coman. Hidráulicos, Leandro-Mec. Manut. Equip. Ind.]</t>
+          <t>Cleison-Elem</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem, -, -, -]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Rogério-Retificação, Anselmo-M. Motor Endot.]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Ludoff-Comam. Pneumáticos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
+          <t>[Humberto-Cont. Lóg. Prog. CLP, Ludoff-Coman. Hidráulicos, Vinicius-Metrologia 2, Aderci-Fresagem]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[Aderci-Fresagem, Ludoff-Comam. Pneumáticos, Ivan-Trat. Térmicos, Leandro-M. S. Ar Cond.]</t>
+          <t>[Joel Lima-Tec. Fundição, Anderson J.-M. A. Comp; Cad / CAM, Ludoff-Coman. Hidráulicos, Leandro-Mec. Manut. Equip. Ind.]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[Anderson J.-M. A. Comp; Cad / CAM, Ludoff-Coman. Hidráulicos, Ivan-Tec. Soldagem, Valmir-Calderaria]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MEC-3B.xlsx
+++ b/data/turm/MEC-3B.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, Leandro-Mec. Manut. Equip. Ind., -]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,17 +483,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[Ludoff-Comam. Pneumáticos, Humberto-Cont. Lóg. Prog. CLP, Leandro-Mec. Manut. Equip. Ind., Joel Lima-Tec. Fundição]</t>
+          <t>[-, Leandro-M. S. Ar Cond., -, -]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC, Gisele-Ens. Dest. não Dest., Rogério-Retificação, Ivan-Trat. Térmicos]</t>
+          <t>[Aderci-Fresagem, Ivan-Trat. Térmicos, Victor-Usin. CNC, Rogério-Retificação]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Victor-Usin. CNC, Aderci-Fresagem, Rogério-Retificação, Ivan-Trat. Térmicos]</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-, Victor-Usin. CNC, Ivan-Trat. Térmicos, Gisele-Ens. Dest. não Dest.]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,17 +515,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Ludoff-Comam. Pneumáticos, Humberto-Cont. Lóg. Prog. CLP, Leandro-Mec. Manut. Equip. Ind., Joel Lima-Tec. Fundição]</t>
+          <t>[-, Leandro-M. S. Ar Cond., -, -]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Victor-Usin. CNC, Gisele-Ens. Dest. não Dest., Valmir-Calderaria, Ivan-Trat. Térmicos]</t>
+          <t>[Aderci-Fresagem, Valmir-Calderaria, Victor-Usin. CNC, Rogério-Retificação]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Comam. Pneumáticos, Aderci-Fresagem, Rogério-Retificação, Ivan-Trat. Térmicos]</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, Victor-Usin. CNC, Ivan-Trat. Térmicos, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-, -, -, Anselmo-M. Motor Endot.]</t>
+          <t>Cleison-Elem</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Ludoff-Comam. Pneumáticos, Leandro-M. S. Ar Cond., Vinicius-Metrologia 2, Aderci-Fresagem]</t>
+          <t>[Leandro-Mec. Manut. Equip. Ind., -, -, -]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[Ludoff-Comam. Pneumáticos, Gisele-Ens. Dest. não Dest., Valmir-Calderaria, Anderson J.-M. A. Comp; Cad / CAM]</t>
+          <t>[Gisele-Ens. Dest. não Dest., Valmir-Calderaria, Anderson J.-M. A. Comp; Cad / CAM, Humberto-Cont. Lóg. Prog. CLP]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ludoff-Coman. Hidráulicos, Anselmo-M. Motor Endot., Leandro-M. S. Ar Cond., Ivan-Trat. Térmicos]</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, -, Rogério-Retificação, Anselmo-M. Motor Endot.]</t>
+          <t>Cleison-Elem</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Joel Lima-Tec. Fundição, Leandro-M. S. Ar Cond., Vinicius-Metrologia 2, Aderci-Fresagem]</t>
+          <t>[Leandro-Mec. Manut. Equip. Ind., -, Vinicius-Metrologia 2, Ludoff-Coman. Hidráulicos]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Leandro-M. S. Ar Cond., Ludoff-Coman. Hidráulicos, Anderson J.-M. A. Comp; Cad / CAM]</t>
+          <t>[Gisele-Ens. Dest. não Dest., Valmir-Calderaria, Anderson J.-M. A. Comp; Cad / CAM, Humberto-Cont. Lóg. Prog. CLP]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cleison-Elem</t>
+          <t>[Ivan-Tec. Soldagem, Anselmo-M. Motor Endot., Ludoff-Comam. Pneumáticos, Joel Lima-Tec. Fundição]</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-, -, Rogério-Retificação, Anselmo-M. Motor Endot.]</t>
+          <t>[-, Vinicius-Metrologia 2, -, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Humberto-Cont. Lóg. Prog. CLP, Leandro-M. S. Ar Cond., Vinicius-Metrologia 2, Aderci-Fresagem]</t>
+          <t>[-, Leandro-M. S. Ar Cond., Vinicius-Metrologia 2, Ludoff-Coman. Hidráulicos]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[Valmir-Calderaria, Anderson J.-M. A. Comp; Cad / CAM, Ludoff-Coman. Hidráulicos, Leandro-Mec. Manut. Equip. Ind.]</t>
+          <t>[Gisele-Ens. Dest. não Dest., Valmir-Calderaria, Anderson J.-M. A. Comp; Cad / CAM, Humberto-Cont. Lóg. Prog. CLP]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cleison-Elem</t>
+          <t>[Ivan-Tec. Soldagem, Anselmo-M. Motor Endot., Ludoff-Comam. Pneumáticos, Joel Lima-Tec. Fundição]</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[Ivan-Tec. Soldagem, -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-, -, Rogério-Retificação, Anselmo-M. Motor Endot.]</t>
+          <t>[-, Vinicius-Metrologia 2, -, -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Humberto-Cont. Lóg. Prog. CLP, Ludoff-Coman. Hidráulicos, Vinicius-Metrologia 2, Aderci-Fresagem]</t>
+          <t>[Ivan-Tec. Soldagem, Joel Lima-Tec. Fundição, Leandro-Mec. Manut. Equip. Ind., Ludoff-Coman. Hidráulicos]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[Joel Lima-Tec. Fundição, Anderson J.-M. A. Comp; Cad / CAM, Ludoff-Coman. Hidráulicos, Leandro-Mec. Manut. Equip. Ind.]</t>
+          <t>[Gisele-Ens. Dest. não Dest., Victor-Usin. CNC, Anderson J.-M. A. Comp; Cad / CAM, Humberto-Cont. Lóg. Prog. CLP]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[Ivan-Tec. Soldagem, Anselmo-M. Motor Endot., Ludoff-Comam. Pneumáticos, Joel Lima-Tec. Fundição]</t>
         </is>
       </c>
     </row>
